--- a/charts_xlsx/gchart.xlsx
+++ b/charts_xlsx/gchart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="548">
   <si>
     <t>Sign Degree: [Planet]</t>
   </si>
@@ -97,9 +97,66 @@
     <t>Pluto Aspect Score</t>
   </si>
   <si>
+    <t>Personal total</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
     <t>Stitches</t>
   </si>
   <si>
+    <t>Rounds:</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>SUN CONJ</t>
   </si>
   <si>
@@ -505,43 +562,28 @@
     <t xml:space="preserve">1: [Venus Sextile] </t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>3 Aries</t>
   </si>
   <si>
     <t xml:space="preserve">4: [Neptune Square] </t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>6 Aries</t>
   </si>
   <si>
     <t xml:space="preserve">7: [Sun Semisquare; Asc Opposition] 8: [Moon Square; Jupiter Quincunx] </t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>9 Aries</t>
   </si>
   <si>
     <t xml:space="preserve">9: [Mars Opposition] 10: [Sun Semisextile] 11: [Mercury Sextile; Saturn Opposition] </t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>12 Aries</t>
   </si>
   <si>
     <t xml:space="preserve">12: [Jupiter Quincunx; Uranus Trine] </t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>15 Aries</t>
@@ -2033,7 +2075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AC121"/>
+  <dimension ref="B1:AY121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2042,7 +2084,7 @@
     <col min="1" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,34 +2169,91 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="2:29">
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:51">
       <c r="D2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -2174,34 +2273,34 @@
       <c r="AA2">
         <v>-5</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:29">
+    <row r="3" spans="2:51">
       <c r="D3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -2218,37 +2317,37 @@
       <c r="AA3">
         <v>-5</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:29">
+    <row r="4" spans="2:51">
       <c r="D4" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="R4">
         <v>-2</v>
@@ -2268,40 +2367,40 @@
       <c r="Z4">
         <v>10</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:51">
       <c r="D5" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="R5">
         <v>-2</v>
@@ -2324,31 +2423,31 @@
       <c r="Z5">
         <v>10</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:29">
+    <row r="6" spans="2:51">
       <c r="D6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="R6">
         <v>-2</v>
@@ -2362,37 +2461,37 @@
       <c r="Y6">
         <v>-10</v>
       </c>
-      <c r="AC6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29">
+      <c r="AG6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:51">
       <c r="D7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="R7">
         <v>-2</v>
@@ -2412,40 +2511,40 @@
       <c r="AB7">
         <v>-10</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:29">
+    <row r="8" spans="2:51">
       <c r="D8" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="R8">
         <v>-2</v>
@@ -2468,40 +2567,40 @@
       <c r="AB8">
         <v>-10</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:29">
+    <row r="9" spans="2:51">
       <c r="D9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="R9">
         <v>-2</v>
@@ -2524,40 +2623,40 @@
       <c r="AB9">
         <v>-10</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:29">
+    <row r="10" spans="2:51">
       <c r="D10" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="R10">
         <v>-2</v>
@@ -2580,40 +2679,40 @@
       <c r="AB10">
         <v>-10</v>
       </c>
-      <c r="AC10">
+      <c r="AG10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:29">
+    <row r="11" spans="2:51">
       <c r="D11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -2636,43 +2735,43 @@
       <c r="AB11">
         <v>-10</v>
       </c>
-      <c r="AC11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29">
+      <c r="AG11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:51">
       <c r="D12" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -2698,37 +2797,37 @@
       <c r="AB12">
         <v>-10</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:29">
+    <row r="13" spans="2:51">
       <c r="D13" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -2748,31 +2847,31 @@
       <c r="AB13">
         <v>-10</v>
       </c>
-      <c r="AC13">
+      <c r="AG13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:29">
+    <row r="14" spans="2:51">
       <c r="D14" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -2786,31 +2885,31 @@
       <c r="X14">
         <v>-10</v>
       </c>
-      <c r="AC14">
+      <c r="AG14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:29">
+    <row r="15" spans="2:51">
       <c r="D15" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="R15">
         <v>5</v>
@@ -2824,28 +2923,28 @@
       <c r="X15">
         <v>-10</v>
       </c>
-      <c r="AC15">
+      <c r="AG15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:29">
+    <row r="16" spans="2:51">
       <c r="D16" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="S16">
         <v>10</v>
@@ -2856,28 +2955,28 @@
       <c r="X16">
         <v>-10</v>
       </c>
-      <c r="AC16">
+      <c r="AG16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:29">
+    <row r="17" spans="4:33">
       <c r="D17" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -2888,31 +2987,31 @@
       <c r="X17">
         <v>-10</v>
       </c>
-      <c r="AC17">
+      <c r="AG17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:29">
+    <row r="18" spans="4:33">
       <c r="D18" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -2926,31 +3025,31 @@
       <c r="X18">
         <v>-10</v>
       </c>
-      <c r="AC18">
+      <c r="AG18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:29">
+    <row r="19" spans="4:33">
       <c r="D19" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="R19">
         <v>-5</v>
@@ -2964,37 +3063,37 @@
       <c r="V19">
         <v>10</v>
       </c>
-      <c r="AC19">
+      <c r="AG19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:29">
+    <row r="20" spans="4:33">
       <c r="D20" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="R20">
         <v>-5</v>
@@ -3014,37 +3113,37 @@
       <c r="AA20">
         <v>-1</v>
       </c>
-      <c r="AC20">
+      <c r="AG20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="4:29">
+    <row r="21" spans="4:33">
       <c r="D21" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E21" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="R21">
         <v>-5</v>
@@ -3064,31 +3163,31 @@
       <c r="AA21">
         <v>-1</v>
       </c>
-      <c r="AC21">
+      <c r="AG21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="4:29">
+    <row r="22" spans="4:33">
       <c r="E22" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="R22">
         <v>-5</v>
@@ -3105,31 +3204,31 @@
       <c r="Z22">
         <v>-10</v>
       </c>
-      <c r="AC22">
+      <c r="AG22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:29">
+    <row r="23" spans="4:33">
       <c r="D23" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E23" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="R23">
         <v>-5</v>
@@ -3143,34 +3242,34 @@
       <c r="Z23">
         <v>-10</v>
       </c>
-      <c r="AC23">
+      <c r="AG23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="4:29">
+    <row r="24" spans="4:33">
       <c r="D24" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E24" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="R24">
         <v>-5</v>
@@ -3187,34 +3286,34 @@
       <c r="Z24">
         <v>-10</v>
       </c>
-      <c r="AC24">
+      <c r="AG24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="4:29">
+    <row r="25" spans="4:33">
       <c r="D25" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="R25">
         <v>-5</v>
@@ -3231,34 +3330,34 @@
       <c r="Z25">
         <v>-10</v>
       </c>
-      <c r="AC25">
+      <c r="AG25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="4:29">
+    <row r="26" spans="4:33">
       <c r="D26" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="S26">
         <v>-1</v>
@@ -3275,31 +3374,31 @@
       <c r="Z26">
         <v>-10</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="4:29">
+    <row r="27" spans="4:33">
       <c r="D27" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="S27">
         <v>-1</v>
@@ -3313,37 +3412,37 @@
       <c r="AA27">
         <v>-10</v>
       </c>
-      <c r="AC27">
+      <c r="AG27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="4:29">
+    <row r="28" spans="4:33">
       <c r="D28" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="S28">
         <v>-1</v>
@@ -3363,43 +3462,43 @@
       <c r="AB28">
         <v>10</v>
       </c>
-      <c r="AC28">
+      <c r="AG28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="4:29">
+    <row r="29" spans="4:33">
       <c r="D29" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="R29">
         <v>10</v>
@@ -3425,43 +3524,43 @@
       <c r="AB29">
         <v>10</v>
       </c>
-      <c r="AC29">
+      <c r="AG29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="4:29">
+    <row r="30" spans="4:33">
       <c r="D30" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="R30">
         <v>10</v>
@@ -3487,34 +3586,34 @@
       <c r="AB30">
         <v>10</v>
       </c>
-      <c r="AC30">
+      <c r="AG30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="4:29">
+    <row r="31" spans="4:33">
       <c r="D31" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="R31">
         <v>10</v>
@@ -3531,34 +3630,34 @@
       <c r="AB31">
         <v>10</v>
       </c>
-      <c r="AC31">
+      <c r="AG31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="4:29">
+    <row r="32" spans="4:33">
       <c r="D32" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="R32">
         <v>10</v>
@@ -3575,37 +3674,37 @@
       <c r="AB32">
         <v>10</v>
       </c>
-      <c r="AC32">
+      <c r="AG32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="4:29">
+    <row r="33" spans="4:33">
       <c r="D33" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="R33">
         <v>10</v>
@@ -3625,34 +3724,34 @@
       <c r="AB33">
         <v>10</v>
       </c>
-      <c r="AC33">
+      <c r="AG33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="4:29">
+    <row r="34" spans="4:33">
       <c r="D34" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="R34">
         <v>10</v>
@@ -3669,31 +3768,31 @@
       <c r="X34">
         <v>10</v>
       </c>
-      <c r="AC34">
+      <c r="AG34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="4:29">
+    <row r="35" spans="4:33">
       <c r="D35" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3707,31 +3806,31 @@
       <c r="X35">
         <v>10</v>
       </c>
-      <c r="AC35">
+      <c r="AG35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="4:29">
+    <row r="36" spans="4:33">
       <c r="D36" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="S36">
         <v>-10</v>
@@ -3745,34 +3844,34 @@
       <c r="Y36">
         <v>-5</v>
       </c>
-      <c r="AC36">
+      <c r="AG36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="4:29">
+    <row r="37" spans="4:33">
       <c r="D37" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="S37">
         <v>-10</v>
@@ -3789,37 +3888,37 @@
       <c r="Y37">
         <v>-5</v>
       </c>
-      <c r="AC37">
+      <c r="AG37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="4:29">
+    <row r="38" spans="4:33">
       <c r="D38" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E38" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="S38">
         <v>-10</v>
@@ -3839,40 +3938,40 @@
       <c r="AB38">
         <v>-5</v>
       </c>
-      <c r="AC38">
+      <c r="AG38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="4:29">
+    <row r="39" spans="4:33">
       <c r="D39" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="R39">
         <v>-1</v>
@@ -3895,46 +3994,46 @@
       <c r="AB39">
         <v>-5</v>
       </c>
-      <c r="AC39">
+      <c r="AG39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="4:29">
+    <row r="40" spans="4:33">
       <c r="D40" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="R40">
         <v>-1</v>
@@ -3963,40 +4062,40 @@
       <c r="AB40">
         <v>-5</v>
       </c>
-      <c r="AC40">
+      <c r="AG40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="4:29">
+    <row r="41" spans="4:33">
       <c r="D41" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F41" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="R41">
         <v>-1</v>
@@ -4019,40 +4118,40 @@
       <c r="AB41">
         <v>-5</v>
       </c>
-      <c r="AC41">
+      <c r="AG41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="4:29">
+    <row r="42" spans="4:33">
       <c r="D42" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="R42">
         <v>-1</v>
@@ -4075,40 +4174,40 @@
       <c r="AB42">
         <v>-5</v>
       </c>
-      <c r="AC42">
+      <c r="AG42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="4:29">
+    <row r="43" spans="4:33">
       <c r="D43" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="R43">
         <v>-1</v>
@@ -4131,34 +4230,34 @@
       <c r="AB43">
         <v>-5</v>
       </c>
-      <c r="AC43">
+      <c r="AG43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="4:29">
+    <row r="44" spans="4:33">
       <c r="D44" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="E44" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F44" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="R44">
         <v>-1</v>
@@ -4175,31 +4274,31 @@
       <c r="Z44">
         <v>10</v>
       </c>
-      <c r="AC44">
+      <c r="AG44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="4:29">
+    <row r="45" spans="4:33">
       <c r="D45" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F45" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="R45">
         <v>-1</v>
@@ -4213,28 +4312,28 @@
       <c r="Z45">
         <v>10</v>
       </c>
-      <c r="AC45">
+      <c r="AG45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="4:29">
+    <row r="46" spans="4:33">
       <c r="D46" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F46" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="U46">
         <v>-10</v>
@@ -4245,28 +4344,28 @@
       <c r="X46">
         <v>-5</v>
       </c>
-      <c r="AC46">
+      <c r="AG46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="4:29">
+    <row r="47" spans="4:33">
       <c r="D47" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="F47" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="W47">
         <v>5</v>
@@ -4277,34 +4376,34 @@
       <c r="Y47">
         <v>5</v>
       </c>
-      <c r="AC47">
+      <c r="AG47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="4:29">
+    <row r="48" spans="4:33">
       <c r="D48" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F48" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -4321,37 +4420,37 @@
       <c r="AB48">
         <v>5</v>
       </c>
-      <c r="AC48">
+      <c r="AG48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:29">
+    <row r="49" spans="2:33">
       <c r="D49" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="R49">
         <v>-10</v>
@@ -4371,40 +4470,40 @@
       <c r="AB49">
         <v>5</v>
       </c>
-      <c r="AC49">
+      <c r="AG49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:29">
+    <row r="50" spans="2:33">
       <c r="D50" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F50" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="R50">
         <v>-10</v>
@@ -4427,34 +4526,34 @@
       <c r="AB50">
         <v>5</v>
       </c>
-      <c r="AC50">
+      <c r="AG50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:29">
+    <row r="51" spans="2:33">
       <c r="D51" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="R51">
         <v>-10</v>
@@ -4471,34 +4570,34 @@
       <c r="AB51">
         <v>5</v>
       </c>
-      <c r="AC51">
+      <c r="AG51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:29">
+    <row r="52" spans="2:33">
       <c r="D52" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F52" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="R52">
         <v>-10</v>
@@ -4515,34 +4614,34 @@
       <c r="AB52">
         <v>5</v>
       </c>
-      <c r="AC52">
+      <c r="AG52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:29">
+    <row r="53" spans="2:33">
       <c r="D53" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="F53" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="R53">
         <v>-10</v>
@@ -4559,34 +4658,34 @@
       <c r="AA53">
         <v>10</v>
       </c>
-      <c r="AC53">
+      <c r="AG53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:29">
+    <row r="54" spans="2:33">
       <c r="D54" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F54" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="R54">
         <v>-10</v>
@@ -4603,31 +4702,31 @@
       <c r="Z54">
         <v>-5</v>
       </c>
-      <c r="AC54">
+      <c r="AG54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:29">
+    <row r="55" spans="2:33">
       <c r="D55" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E55" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="R55">
         <v>-10</v>
@@ -4641,25 +4740,25 @@
       <c r="Z55">
         <v>-5</v>
       </c>
-      <c r="AC55">
+      <c r="AG55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:29">
+    <row r="56" spans="2:33">
       <c r="D56" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F56" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="S56">
         <v>10</v>
@@ -4667,31 +4766,31 @@
       <c r="X56">
         <v>5</v>
       </c>
-      <c r="AC56">
+      <c r="AG56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:29">
+    <row r="57" spans="2:33">
       <c r="D57" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="S57">
         <v>10</v>
@@ -4705,37 +4804,37 @@
       <c r="X57">
         <v>5</v>
       </c>
-      <c r="AC57">
+      <c r="AG57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:29">
+    <row r="58" spans="2:33">
       <c r="D58" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E58" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F58" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="S58">
         <v>10</v>
@@ -4755,34 +4854,34 @@
       <c r="AA58">
         <v>-5</v>
       </c>
-      <c r="AC58">
+      <c r="AG58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:29">
+    <row r="59" spans="2:33">
       <c r="D59" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E59" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="S59">
         <v>10</v>
@@ -4799,34 +4898,34 @@
       <c r="AA59">
         <v>-5</v>
       </c>
-      <c r="AC59">
+      <c r="AG59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:29">
+    <row r="60" spans="2:33">
       <c r="D60" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="E60" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="F60" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="Q60" s="12" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="S60">
         <v>10</v>
@@ -4843,43 +4942,43 @@
       <c r="AB60">
         <v>1</v>
       </c>
-      <c r="AC60">
+      <c r="AG60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:29">
+    <row r="61" spans="2:33">
       <c r="B61" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E61" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F61" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="T61">
         <v>3</v>
@@ -4899,31 +4998,31 @@
       <c r="AB61">
         <v>1</v>
       </c>
-      <c r="AC61">
+      <c r="AG61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:29">
+    <row r="62" spans="2:33">
       <c r="E62" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F62" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="T62">
         <v>3</v>
@@ -4940,31 +5039,31 @@
       <c r="AA62">
         <v>-5</v>
       </c>
-      <c r="AC62">
+      <c r="AG62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:29">
+    <row r="63" spans="2:33">
       <c r="D63" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="E63" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F63" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="T63">
         <v>3</v>
@@ -4978,34 +5077,34 @@
       <c r="AA63">
         <v>-5</v>
       </c>
-      <c r="AC63">
+      <c r="AG63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:29">
+    <row r="64" spans="2:33">
       <c r="D64" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E64" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F64" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="S64">
         <v>-5</v>
@@ -5022,37 +5121,37 @@
       <c r="Z64">
         <v>5</v>
       </c>
-      <c r="AC64">
+      <c r="AG64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:29">
+    <row r="65" spans="2:33">
       <c r="D65" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F65" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="S65">
         <v>-5</v>
@@ -5072,31 +5171,31 @@
       <c r="Z65">
         <v>5</v>
       </c>
-      <c r="AC65">
+      <c r="AG65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:29">
+    <row r="66" spans="2:33">
       <c r="D66" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F66" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="S66">
         <v>-5</v>
@@ -5110,34 +5209,34 @@
       <c r="Y66">
         <v>3</v>
       </c>
-      <c r="AC66">
+      <c r="AG66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:29">
+    <row r="67" spans="2:33">
       <c r="D67" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="E67" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F67" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="S67">
         <v>-5</v>
@@ -5154,46 +5253,46 @@
       <c r="AB67">
         <v>3</v>
       </c>
-      <c r="AC67">
+      <c r="AG67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:29">
+    <row r="68" spans="2:33">
       <c r="B68" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D68" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="E68" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F68" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="S68">
         <v>-5</v>
@@ -5216,49 +5315,49 @@
       <c r="AB68">
         <v>3</v>
       </c>
-      <c r="AC68">
+      <c r="AG68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:29">
+    <row r="69" spans="2:33">
       <c r="B69" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="D69" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="E69" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="Q69" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="R69">
         <v>10</v>
@@ -5284,49 +5383,49 @@
       <c r="AB69">
         <v>3</v>
       </c>
-      <c r="AC69">
+      <c r="AG69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:29">
+    <row r="70" spans="2:33">
       <c r="B70" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E70" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F70" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5352,43 +5451,43 @@
       <c r="AB70">
         <v>3</v>
       </c>
-      <c r="AC70">
+      <c r="AG70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:29">
+    <row r="71" spans="2:33">
       <c r="D71" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E71" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="F71" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="R71">
         <v>10</v>
@@ -5414,46 +5513,46 @@
       <c r="AB71">
         <v>3</v>
       </c>
-      <c r="AC71">
+      <c r="AG71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:29">
+    <row r="72" spans="2:33">
       <c r="D72" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E72" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F72" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="R72">
         <v>10</v>
@@ -5482,37 +5581,37 @@
       <c r="AB72">
         <v>3</v>
       </c>
-      <c r="AC72">
+      <c r="AG72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:29">
+    <row r="73" spans="2:33">
       <c r="D73" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E73" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F73" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="Q73" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="R73">
         <v>10</v>
@@ -5532,34 +5631,34 @@
       <c r="AB73">
         <v>3</v>
       </c>
-      <c r="AC73">
+      <c r="AG73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:29">
+    <row r="74" spans="2:33">
       <c r="D74" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E74" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="F74" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="R74">
         <v>10</v>
@@ -5576,40 +5675,40 @@
       <c r="X74">
         <v>3</v>
       </c>
-      <c r="AC74">
+      <c r="AG74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:29">
+    <row r="75" spans="2:33">
       <c r="B75" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C75" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="E75" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F75" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -5626,31 +5725,31 @@
       <c r="X75">
         <v>3</v>
       </c>
-      <c r="AC75">
+      <c r="AG75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:29">
+    <row r="76" spans="2:33">
       <c r="D76" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E76" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F76" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="S76">
         <v>5</v>
@@ -5664,31 +5763,31 @@
       <c r="X76">
         <v>3</v>
       </c>
-      <c r="AC76">
+      <c r="AG76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:29">
+    <row r="77" spans="2:33">
       <c r="D77" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="E77" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="S77">
         <v>5</v>
@@ -5702,37 +5801,37 @@
       <c r="X77">
         <v>3</v>
       </c>
-      <c r="AC77">
+      <c r="AG77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:29">
+    <row r="78" spans="2:33">
       <c r="D78" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="E78" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F78" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="S78">
         <v>5</v>
@@ -5752,34 +5851,34 @@
       <c r="Y78">
         <v>1</v>
       </c>
-      <c r="AC78">
+      <c r="AG78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:29">
+    <row r="79" spans="2:33">
       <c r="D79" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E79" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="F79" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="R79">
         <v>-5</v>
@@ -5796,40 +5895,40 @@
       <c r="Y79">
         <v>1</v>
       </c>
-      <c r="AC79">
+      <c r="AG79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:29">
+    <row r="80" spans="2:33">
       <c r="D80" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="E80" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F80" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Q80" s="12" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="R80">
         <v>-5</v>
@@ -5852,40 +5951,40 @@
       <c r="AB80">
         <v>1</v>
       </c>
-      <c r="AC80">
+      <c r="AG80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:29">
+    <row r="81" spans="2:33">
       <c r="D81" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E81" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F81" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Q81" s="12" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="R81">
         <v>-5</v>
@@ -5908,37 +6007,37 @@
       <c r="AB81">
         <v>1</v>
       </c>
-      <c r="AC81">
+      <c r="AG81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:29">
+    <row r="82" spans="2:33">
       <c r="D82" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F82" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="R82">
         <v>-5</v>
@@ -5958,43 +6057,43 @@
       <c r="Z82">
         <v>3</v>
       </c>
-      <c r="AC82">
+      <c r="AG82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:29">
+    <row r="83" spans="2:33">
       <c r="B83" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C83" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D83" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="E83" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F83" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="R83">
         <v>-5</v>
@@ -6014,46 +6113,46 @@
       <c r="Z83">
         <v>3</v>
       </c>
-      <c r="AC83">
+      <c r="AG83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:29">
+    <row r="84" spans="2:33">
       <c r="D84" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="E84" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="F84" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="Q84" s="12" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="R84">
         <v>-5</v>
@@ -6082,37 +6181,37 @@
       <c r="AB84">
         <v>-2</v>
       </c>
-      <c r="AC84">
+      <c r="AG84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="2:29">
+    <row r="85" spans="2:33">
       <c r="D85" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="E85" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="F85" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="Q85" s="12" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="R85">
         <v>-5</v>
@@ -6132,31 +6231,31 @@
       <c r="AB85">
         <v>-2</v>
       </c>
-      <c r="AC85">
+      <c r="AG85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:29">
+    <row r="86" spans="2:33">
       <c r="D86" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="E86" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F86" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="Q86" s="12" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -6170,31 +6269,31 @@
       <c r="AB86">
         <v>-2</v>
       </c>
-      <c r="AC86">
+      <c r="AG86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:29">
+    <row r="87" spans="2:33">
       <c r="D87" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="E87" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="F87" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -6208,37 +6307,37 @@
       <c r="AA87">
         <v>3</v>
       </c>
-      <c r="AC87">
+      <c r="AG87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:29">
+    <row r="88" spans="2:33">
       <c r="D88" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="E88" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="F88" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="N88" s="11" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -6258,46 +6357,46 @@
       <c r="AB88">
         <v>5</v>
       </c>
-      <c r="AC88">
+      <c r="AG88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="2:29">
+    <row r="89" spans="2:33">
       <c r="D89" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="E89" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="F89" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q89" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="R89">
         <v>5</v>
@@ -6326,52 +6425,52 @@
       <c r="AB89">
         <v>5</v>
       </c>
-      <c r="AC89">
+      <c r="AG89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="2:29">
+    <row r="90" spans="2:33">
       <c r="B90" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="C90" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="E90" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F90" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="N90" s="11" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="R90">
         <v>5</v>
@@ -6400,34 +6499,34 @@
       <c r="AB90">
         <v>5</v>
       </c>
-      <c r="AC90">
+      <c r="AG90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:29">
+    <row r="91" spans="2:33">
       <c r="D91" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="E91" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="F91" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q91" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="R91">
         <v>5</v>
@@ -6444,34 +6543,34 @@
       <c r="AB91">
         <v>5</v>
       </c>
-      <c r="AC91">
+      <c r="AG91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:29">
+    <row r="92" spans="2:33">
       <c r="D92" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="E92" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="F92" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="R92">
         <v>5</v>
@@ -6488,37 +6587,37 @@
       <c r="AB92">
         <v>5</v>
       </c>
-      <c r="AC92">
+      <c r="AG92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="2:29">
+    <row r="93" spans="2:33">
       <c r="D93" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="E93" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="F93" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="R93">
         <v>5</v>
@@ -6538,34 +6637,34 @@
       <c r="AA93">
         <v>3</v>
       </c>
-      <c r="AC93">
+      <c r="AG93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="2:29">
+    <row r="94" spans="2:33">
       <c r="D94" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="E94" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="F94" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="R94">
         <v>5</v>
@@ -6582,31 +6681,31 @@
       <c r="X94">
         <v>5</v>
       </c>
-      <c r="AC94">
+      <c r="AG94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:29">
+    <row r="95" spans="2:33">
       <c r="D95" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E95" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="F95" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="R95">
         <v>5</v>
@@ -6620,31 +6719,31 @@
       <c r="X95">
         <v>5</v>
       </c>
-      <c r="AC95">
+      <c r="AG95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="2:29">
+    <row r="96" spans="2:33">
       <c r="D96" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="E96" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="F96" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="S96">
         <v>3</v>
@@ -6658,43 +6757,43 @@
       <c r="Y96">
         <v>-5</v>
       </c>
-      <c r="AC96">
+      <c r="AG96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:29">
+    <row r="97" spans="2:33">
       <c r="B97" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="C97" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D97" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="E97" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="F97" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="S97">
         <v>3</v>
@@ -6714,40 +6813,40 @@
       <c r="Z97">
         <v>-2</v>
       </c>
-      <c r="AC97">
+      <c r="AG97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:29">
+    <row r="98" spans="2:33">
       <c r="D98" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E98" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="F98" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="Q98" s="12" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="S98">
         <v>3</v>
@@ -6770,43 +6869,43 @@
       <c r="AB98">
         <v>-5</v>
       </c>
-      <c r="AC98">
+      <c r="AG98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:29">
+    <row r="99" spans="2:33">
       <c r="D99" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E99" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="F99" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="N99" s="11" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="Q99" s="12" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="R99">
         <v>1</v>
@@ -6832,52 +6931,52 @@
       <c r="AB99">
         <v>-5</v>
       </c>
-      <c r="AC99">
+      <c r="AG99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:29">
+    <row r="100" spans="2:33">
       <c r="B100" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D100" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="E100" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="F100" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="R100">
         <v>1</v>
@@ -6906,43 +7005,43 @@
       <c r="AB100">
         <v>-5</v>
       </c>
-      <c r="AC100">
+      <c r="AG100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:29">
+    <row r="101" spans="2:33">
       <c r="D101" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="E101" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="F101" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="Q101" s="12" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="R101">
         <v>1</v>
@@ -6968,40 +7067,40 @@
       <c r="AB101">
         <v>-5</v>
       </c>
-      <c r="AC101">
+      <c r="AG101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:29">
+    <row r="102" spans="2:33">
       <c r="D102" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="E102" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="F102" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="R102">
         <v>1</v>
@@ -7024,46 +7123,46 @@
       <c r="AB102">
         <v>-5</v>
       </c>
-      <c r="AC102">
+      <c r="AG102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="2:29">
+    <row r="103" spans="2:33">
       <c r="B103" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C103" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D103" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="E103" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F103" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="O103" s="6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q103" s="12" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="R103">
         <v>1</v>
@@ -7086,40 +7185,40 @@
       <c r="AB103">
         <v>-5</v>
       </c>
-      <c r="AC103">
+      <c r="AG103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:29">
+    <row r="104" spans="2:33">
       <c r="D104" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="E104" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="F104" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -7142,40 +7241,40 @@
       <c r="AA104">
         <v>-2</v>
       </c>
-      <c r="AC104">
+      <c r="AG104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="2:29">
+    <row r="105" spans="2:33">
       <c r="D105" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="E105" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="F105" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="R105">
         <v>1</v>
@@ -7198,37 +7297,37 @@
       <c r="AA105">
         <v>-2</v>
       </c>
-      <c r="AC105">
+      <c r="AG105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:29">
+    <row r="106" spans="2:33">
       <c r="D106" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="E106" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F106" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -7248,31 +7347,31 @@
       <c r="AA106">
         <v>-2</v>
       </c>
-      <c r="AC106">
+      <c r="AG106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:29">
+    <row r="107" spans="2:33">
       <c r="D107" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="E107" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="F107" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -7286,37 +7385,37 @@
       <c r="Y107">
         <v>10</v>
       </c>
-      <c r="AC107">
+      <c r="AG107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:29">
+    <row r="108" spans="2:33">
       <c r="D108" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="E108" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="F108" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q108" s="12" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -7336,43 +7435,43 @@
       <c r="AB108">
         <v>10</v>
       </c>
-      <c r="AC108">
+      <c r="AG108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:29">
+    <row r="109" spans="2:33">
       <c r="D109" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="E109" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="F109" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q109" s="12" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="R109">
         <v>3</v>
@@ -7398,46 +7497,46 @@
       <c r="AB109">
         <v>10</v>
       </c>
-      <c r="AC109">
+      <c r="AG109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:29">
+    <row r="110" spans="2:33">
       <c r="D110" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="E110" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="F110" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="O110" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q110" s="12" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="R110">
         <v>3</v>
@@ -7466,40 +7565,40 @@
       <c r="AB110">
         <v>10</v>
       </c>
-      <c r="AC110">
+      <c r="AG110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:29">
+    <row r="111" spans="2:33">
       <c r="D111" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="E111" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="F111" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="O111" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q111" s="12" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="R111">
         <v>3</v>
@@ -7522,46 +7621,46 @@
       <c r="AB111">
         <v>10</v>
       </c>
-      <c r="AC111">
+      <c r="AG111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:29">
+    <row r="112" spans="2:33">
       <c r="B112" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="C112" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="E112" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="F112" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="O112" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q112" s="12" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="R112">
         <v>3</v>
@@ -7584,40 +7683,40 @@
       <c r="AB112">
         <v>10</v>
       </c>
-      <c r="AC112">
+      <c r="AG112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="4:29">
+    <row r="113" spans="4:33">
       <c r="D113" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="E113" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F113" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="O113" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="Q113" s="12" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="R113">
         <v>3</v>
@@ -7640,40 +7739,40 @@
       <c r="AB113">
         <v>10</v>
       </c>
-      <c r="AC113">
+      <c r="AG113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="4:29">
+    <row r="114" spans="4:33">
       <c r="D114" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="E114" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="F114" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="R114">
         <v>3</v>
@@ -7696,34 +7795,34 @@
       <c r="Z114">
         <v>-5</v>
       </c>
-      <c r="AC114">
+      <c r="AG114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="4:29">
+    <row r="115" spans="4:33">
       <c r="D115" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="E115" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="F115" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="O115" s="6" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="R115">
         <v>3</v>
@@ -7740,28 +7839,28 @@
       <c r="Z115">
         <v>-5</v>
       </c>
-      <c r="AC115">
+      <c r="AG115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="4:29">
+    <row r="116" spans="4:33">
       <c r="D116" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="E116" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F116" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="S116">
         <v>5</v>
@@ -7772,31 +7871,31 @@
       <c r="X116">
         <v>10</v>
       </c>
-      <c r="AC116">
+      <c r="AG116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="4:29">
+    <row r="117" spans="4:33">
       <c r="D117" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="E117" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="F117" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="S117">
         <v>5</v>
@@ -7810,40 +7909,40 @@
       <c r="X117">
         <v>10</v>
       </c>
-      <c r="AC117">
+      <c r="AG117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="4:29">
+    <row r="118" spans="4:33">
       <c r="D118" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E118" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="F118" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P118" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="S118">
         <v>5</v>
@@ -7866,40 +7965,40 @@
       <c r="AA118">
         <v>-5</v>
       </c>
-      <c r="AC118">
+      <c r="AG118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="4:29">
+    <row r="119" spans="4:33">
       <c r="D119" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="E119" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="F119" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P119" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="R119">
         <v>1</v>
@@ -7922,40 +8021,40 @@
       <c r="AA119">
         <v>-5</v>
       </c>
-      <c r="AC119">
+      <c r="AG119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="4:29">
+    <row r="120" spans="4:33">
       <c r="D120" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="E120" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="F120" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O120" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P120" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q120" s="12" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="R120">
         <v>1</v>
@@ -7978,40 +8077,40 @@
       <c r="AB120">
         <v>-1</v>
       </c>
-      <c r="AC120">
+      <c r="AG120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="4:29">
+    <row r="121" spans="4:33">
       <c r="D121" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="E121" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="F121" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O121" s="6" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P121" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q121" s="12" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="R121">
         <v>1</v>
@@ -8034,7 +8133,7 @@
       <c r="AB121">
         <v>-1</v>
       </c>
-      <c r="AC121">
+      <c r="AG121">
         <v>120</v>
       </c>
     </row>

--- a/charts_xlsx/gchart.xlsx
+++ b/charts_xlsx/gchart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="542">
   <si>
     <t>Sign Degree: [Planet]</t>
   </si>
@@ -97,9 +97,39 @@
     <t>Pluto Aspect Score</t>
   </si>
   <si>
+    <t>Personal total</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
     <t>Stitches</t>
   </si>
   <si>
+    <t>Rounds:</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>SUN CONJ</t>
   </si>
   <si>
@@ -505,16 +535,10 @@
     <t xml:space="preserve">1: [Venus Sextile] </t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>3 Aries</t>
   </si>
   <si>
     <t xml:space="preserve">4: [Neptune Square] </t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>6 Aries</t>
@@ -2033,7 +2057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AC121"/>
+  <dimension ref="B1:AP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2042,7 +2066,7 @@
     <col min="1" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,34 +2151,64 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="2:29">
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:42">
       <c r="D2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -2174,34 +2228,34 @@
       <c r="AA2">
         <v>-5</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:29">
+    <row r="3" spans="2:42">
       <c r="D3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -2218,37 +2272,37 @@
       <c r="AA3">
         <v>-5</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:29">
+    <row r="4" spans="2:42">
       <c r="D4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="R4">
         <v>-2</v>
@@ -2268,40 +2322,40 @@
       <c r="Z4">
         <v>10</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:42">
       <c r="D5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="R5">
         <v>-2</v>
@@ -2324,31 +2378,31 @@
       <c r="Z5">
         <v>10</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:29">
+    <row r="6" spans="2:42">
       <c r="D6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="R6">
         <v>-2</v>
@@ -2362,37 +2416,37 @@
       <c r="Y6">
         <v>-10</v>
       </c>
-      <c r="AC6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29">
+      <c r="AG6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42">
       <c r="D7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R7">
         <v>-2</v>
@@ -2412,40 +2466,40 @@
       <c r="AB7">
         <v>-10</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:29">
+    <row r="8" spans="2:42">
       <c r="D8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R8">
         <v>-2</v>
@@ -2468,40 +2522,40 @@
       <c r="AB8">
         <v>-10</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:29">
+    <row r="9" spans="2:42">
       <c r="D9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R9">
         <v>-2</v>
@@ -2524,40 +2578,40 @@
       <c r="AB9">
         <v>-10</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:29">
+    <row r="10" spans="2:42">
       <c r="D10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R10">
         <v>-2</v>
@@ -2580,40 +2634,40 @@
       <c r="AB10">
         <v>-10</v>
       </c>
-      <c r="AC10">
+      <c r="AG10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:29">
+    <row r="11" spans="2:42">
       <c r="D11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -2636,43 +2690,43 @@
       <c r="AB11">
         <v>-10</v>
       </c>
-      <c r="AC11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29">
+      <c r="AG11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42">
       <c r="D12" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -2698,37 +2752,37 @@
       <c r="AB12">
         <v>-10</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:29">
+    <row r="13" spans="2:42">
       <c r="D13" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -2748,31 +2802,31 @@
       <c r="AB13">
         <v>-10</v>
       </c>
-      <c r="AC13">
+      <c r="AG13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:29">
+    <row r="14" spans="2:42">
       <c r="D14" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -2786,31 +2840,31 @@
       <c r="X14">
         <v>-10</v>
       </c>
-      <c r="AC14">
+      <c r="AG14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:29">
+    <row r="15" spans="2:42">
       <c r="D15" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="R15">
         <v>5</v>
@@ -2824,28 +2878,28 @@
       <c r="X15">
         <v>-10</v>
       </c>
-      <c r="AC15">
+      <c r="AG15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:29">
+    <row r="16" spans="2:42">
       <c r="D16" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="S16">
         <v>10</v>
@@ -2856,28 +2910,28 @@
       <c r="X16">
         <v>-10</v>
       </c>
-      <c r="AC16">
+      <c r="AG16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:29">
+    <row r="17" spans="4:33">
       <c r="D17" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -2888,31 +2942,31 @@
       <c r="X17">
         <v>-10</v>
       </c>
-      <c r="AC17">
+      <c r="AG17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:29">
+    <row r="18" spans="4:33">
       <c r="D18" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -2926,31 +2980,31 @@
       <c r="X18">
         <v>-10</v>
       </c>
-      <c r="AC18">
+      <c r="AG18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:29">
+    <row r="19" spans="4:33">
       <c r="D19" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="R19">
         <v>-5</v>
@@ -2964,37 +3018,37 @@
       <c r="V19">
         <v>10</v>
       </c>
-      <c r="AC19">
+      <c r="AG19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:29">
+    <row r="20" spans="4:33">
       <c r="D20" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="R20">
         <v>-5</v>
@@ -3014,37 +3068,37 @@
       <c r="AA20">
         <v>-1</v>
       </c>
-      <c r="AC20">
+      <c r="AG20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="4:29">
+    <row r="21" spans="4:33">
       <c r="D21" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E21" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="R21">
         <v>-5</v>
@@ -3064,31 +3118,31 @@
       <c r="AA21">
         <v>-1</v>
       </c>
-      <c r="AC21">
+      <c r="AG21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="4:29">
+    <row r="22" spans="4:33">
       <c r="E22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="R22">
         <v>-5</v>
@@ -3105,31 +3159,31 @@
       <c r="Z22">
         <v>-10</v>
       </c>
-      <c r="AC22">
+      <c r="AG22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:29">
+    <row r="23" spans="4:33">
       <c r="D23" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="R23">
         <v>-5</v>
@@ -3143,34 +3197,34 @@
       <c r="Z23">
         <v>-10</v>
       </c>
-      <c r="AC23">
+      <c r="AG23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="4:29">
+    <row r="24" spans="4:33">
       <c r="D24" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E24" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="R24">
         <v>-5</v>
@@ -3187,34 +3241,34 @@
       <c r="Z24">
         <v>-10</v>
       </c>
-      <c r="AC24">
+      <c r="AG24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="4:29">
+    <row r="25" spans="4:33">
       <c r="D25" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="R25">
         <v>-5</v>
@@ -3231,34 +3285,34 @@
       <c r="Z25">
         <v>-10</v>
       </c>
-      <c r="AC25">
+      <c r="AG25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="4:29">
+    <row r="26" spans="4:33">
       <c r="D26" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="S26">
         <v>-1</v>
@@ -3275,31 +3329,31 @@
       <c r="Z26">
         <v>-10</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="4:29">
+    <row r="27" spans="4:33">
       <c r="D27" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="S27">
         <v>-1</v>
@@ -3313,37 +3367,37 @@
       <c r="AA27">
         <v>-10</v>
       </c>
-      <c r="AC27">
+      <c r="AG27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="4:29">
+    <row r="28" spans="4:33">
       <c r="D28" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="S28">
         <v>-1</v>
@@ -3363,43 +3417,43 @@
       <c r="AB28">
         <v>10</v>
       </c>
-      <c r="AC28">
+      <c r="AG28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="4:29">
+    <row r="29" spans="4:33">
       <c r="D29" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R29">
         <v>10</v>
@@ -3425,43 +3479,43 @@
       <c r="AB29">
         <v>10</v>
       </c>
-      <c r="AC29">
+      <c r="AG29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="4:29">
+    <row r="30" spans="4:33">
       <c r="D30" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R30">
         <v>10</v>
@@ -3487,34 +3541,34 @@
       <c r="AB30">
         <v>10</v>
       </c>
-      <c r="AC30">
+      <c r="AG30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="4:29">
+    <row r="31" spans="4:33">
       <c r="D31" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R31">
         <v>10</v>
@@ -3531,34 +3585,34 @@
       <c r="AB31">
         <v>10</v>
       </c>
-      <c r="AC31">
+      <c r="AG31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="4:29">
+    <row r="32" spans="4:33">
       <c r="D32" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R32">
         <v>10</v>
@@ -3575,37 +3629,37 @@
       <c r="AB32">
         <v>10</v>
       </c>
-      <c r="AC32">
+      <c r="AG32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="4:29">
+    <row r="33" spans="4:33">
       <c r="D33" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="R33">
         <v>10</v>
@@ -3625,34 +3679,34 @@
       <c r="AB33">
         <v>10</v>
       </c>
-      <c r="AC33">
+      <c r="AG33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="4:29">
+    <row r="34" spans="4:33">
       <c r="D34" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="R34">
         <v>10</v>
@@ -3669,31 +3723,31 @@
       <c r="X34">
         <v>10</v>
       </c>
-      <c r="AC34">
+      <c r="AG34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="4:29">
+    <row r="35" spans="4:33">
       <c r="D35" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3707,31 +3761,31 @@
       <c r="X35">
         <v>10</v>
       </c>
-      <c r="AC35">
+      <c r="AG35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="4:29">
+    <row r="36" spans="4:33">
       <c r="D36" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S36">
         <v>-10</v>
@@ -3745,34 +3799,34 @@
       <c r="Y36">
         <v>-5</v>
       </c>
-      <c r="AC36">
+      <c r="AG36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="4:29">
+    <row r="37" spans="4:33">
       <c r="D37" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S37">
         <v>-10</v>
@@ -3789,37 +3843,37 @@
       <c r="Y37">
         <v>-5</v>
       </c>
-      <c r="AC37">
+      <c r="AG37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="4:29">
+    <row r="38" spans="4:33">
       <c r="D38" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="S38">
         <v>-10</v>
@@ -3839,40 +3893,40 @@
       <c r="AB38">
         <v>-5</v>
       </c>
-      <c r="AC38">
+      <c r="AG38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="4:29">
+    <row r="39" spans="4:33">
       <c r="D39" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R39">
         <v>-1</v>
@@ -3895,46 +3949,46 @@
       <c r="AB39">
         <v>-5</v>
       </c>
-      <c r="AC39">
+      <c r="AG39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="4:29">
+    <row r="40" spans="4:33">
       <c r="D40" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R40">
         <v>-1</v>
@@ -3963,40 +4017,40 @@
       <c r="AB40">
         <v>-5</v>
       </c>
-      <c r="AC40">
+      <c r="AG40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="4:29">
+    <row r="41" spans="4:33">
       <c r="D41" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F41" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R41">
         <v>-1</v>
@@ -4019,40 +4073,40 @@
       <c r="AB41">
         <v>-5</v>
       </c>
-      <c r="AC41">
+      <c r="AG41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="4:29">
+    <row r="42" spans="4:33">
       <c r="D42" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F42" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R42">
         <v>-1</v>
@@ -4075,40 +4129,40 @@
       <c r="AB42">
         <v>-5</v>
       </c>
-      <c r="AC42">
+      <c r="AG42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="4:29">
+    <row r="43" spans="4:33">
       <c r="D43" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="R43">
         <v>-1</v>
@@ -4131,34 +4185,34 @@
       <c r="AB43">
         <v>-5</v>
       </c>
-      <c r="AC43">
+      <c r="AG43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="4:29">
+    <row r="44" spans="4:33">
       <c r="D44" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="R44">
         <v>-1</v>
@@ -4175,31 +4229,31 @@
       <c r="Z44">
         <v>10</v>
       </c>
-      <c r="AC44">
+      <c r="AG44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="4:29">
+    <row r="45" spans="4:33">
       <c r="D45" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F45" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="R45">
         <v>-1</v>
@@ -4213,28 +4267,28 @@
       <c r="Z45">
         <v>10</v>
       </c>
-      <c r="AC45">
+      <c r="AG45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="4:29">
+    <row r="46" spans="4:33">
       <c r="D46" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F46" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="U46">
         <v>-10</v>
@@ -4245,28 +4299,28 @@
       <c r="X46">
         <v>-5</v>
       </c>
-      <c r="AC46">
+      <c r="AG46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="4:29">
+    <row r="47" spans="4:33">
       <c r="D47" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F47" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="W47">
         <v>5</v>
@@ -4277,34 +4331,34 @@
       <c r="Y47">
         <v>5</v>
       </c>
-      <c r="AC47">
+      <c r="AG47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="4:29">
+    <row r="48" spans="4:33">
       <c r="D48" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -4321,37 +4375,37 @@
       <c r="AB48">
         <v>5</v>
       </c>
-      <c r="AC48">
+      <c r="AG48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:29">
+    <row r="49" spans="2:33">
       <c r="D49" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="R49">
         <v>-10</v>
@@ -4371,40 +4425,40 @@
       <c r="AB49">
         <v>5</v>
       </c>
-      <c r="AC49">
+      <c r="AG49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:29">
+    <row r="50" spans="2:33">
       <c r="D50" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F50" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="R50">
         <v>-10</v>
@@ -4427,34 +4481,34 @@
       <c r="AB50">
         <v>5</v>
       </c>
-      <c r="AC50">
+      <c r="AG50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:29">
+    <row r="51" spans="2:33">
       <c r="D51" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="R51">
         <v>-10</v>
@@ -4471,34 +4525,34 @@
       <c r="AB51">
         <v>5</v>
       </c>
-      <c r="AC51">
+      <c r="AG51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:29">
+    <row r="52" spans="2:33">
       <c r="D52" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F52" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="R52">
         <v>-10</v>
@@ -4515,34 +4569,34 @@
       <c r="AB52">
         <v>5</v>
       </c>
-      <c r="AC52">
+      <c r="AG52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:29">
+    <row r="53" spans="2:33">
       <c r="D53" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F53" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="R53">
         <v>-10</v>
@@ -4559,34 +4613,34 @@
       <c r="AA53">
         <v>10</v>
       </c>
-      <c r="AC53">
+      <c r="AG53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:29">
+    <row r="54" spans="2:33">
       <c r="D54" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F54" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="R54">
         <v>-10</v>
@@ -4603,31 +4657,31 @@
       <c r="Z54">
         <v>-5</v>
       </c>
-      <c r="AC54">
+      <c r="AG54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:29">
+    <row r="55" spans="2:33">
       <c r="D55" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E55" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="R55">
         <v>-10</v>
@@ -4641,25 +4695,25 @@
       <c r="Z55">
         <v>-5</v>
       </c>
-      <c r="AC55">
+      <c r="AG55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:29">
+    <row r="56" spans="2:33">
       <c r="D56" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E56" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F56" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="S56">
         <v>10</v>
@@ -4667,31 +4721,31 @@
       <c r="X56">
         <v>5</v>
       </c>
-      <c r="AC56">
+      <c r="AG56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:29">
+    <row r="57" spans="2:33">
       <c r="D57" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="S57">
         <v>10</v>
@@ -4705,37 +4759,37 @@
       <c r="X57">
         <v>5</v>
       </c>
-      <c r="AC57">
+      <c r="AG57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:29">
+    <row r="58" spans="2:33">
       <c r="D58" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E58" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F58" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="S58">
         <v>10</v>
@@ -4755,34 +4809,34 @@
       <c r="AA58">
         <v>-5</v>
       </c>
-      <c r="AC58">
+      <c r="AG58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:29">
+    <row r="59" spans="2:33">
       <c r="D59" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E59" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="S59">
         <v>10</v>
@@ -4799,34 +4853,34 @@
       <c r="AA59">
         <v>-5</v>
       </c>
-      <c r="AC59">
+      <c r="AG59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:29">
+    <row r="60" spans="2:33">
       <c r="D60" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E60" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F60" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q60" s="12" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="S60">
         <v>10</v>
@@ -4843,43 +4897,43 @@
       <c r="AB60">
         <v>1</v>
       </c>
-      <c r="AC60">
+      <c r="AG60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:29">
+    <row r="61" spans="2:33">
       <c r="B61" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C61" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E61" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F61" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="T61">
         <v>3</v>
@@ -4899,31 +4953,31 @@
       <c r="AB61">
         <v>1</v>
       </c>
-      <c r="AC61">
+      <c r="AG61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:29">
+    <row r="62" spans="2:33">
       <c r="E62" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F62" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="T62">
         <v>3</v>
@@ -4940,31 +4994,31 @@
       <c r="AA62">
         <v>-5</v>
       </c>
-      <c r="AC62">
+      <c r="AG62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:29">
+    <row r="63" spans="2:33">
       <c r="D63" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E63" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F63" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="T63">
         <v>3</v>
@@ -4978,34 +5032,34 @@
       <c r="AA63">
         <v>-5</v>
       </c>
-      <c r="AC63">
+      <c r="AG63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:29">
+    <row r="64" spans="2:33">
       <c r="D64" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F64" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="S64">
         <v>-5</v>
@@ -5022,37 +5076,37 @@
       <c r="Z64">
         <v>5</v>
       </c>
-      <c r="AC64">
+      <c r="AG64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:29">
+    <row r="65" spans="2:33">
       <c r="D65" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F65" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="S65">
         <v>-5</v>
@@ -5072,31 +5126,31 @@
       <c r="Z65">
         <v>5</v>
       </c>
-      <c r="AC65">
+      <c r="AG65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:29">
+    <row r="66" spans="2:33">
       <c r="D66" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F66" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="S66">
         <v>-5</v>
@@ -5110,34 +5164,34 @@
       <c r="Y66">
         <v>3</v>
       </c>
-      <c r="AC66">
+      <c r="AG66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:29">
+    <row r="67" spans="2:33">
       <c r="D67" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E67" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F67" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S67">
         <v>-5</v>
@@ -5154,46 +5208,46 @@
       <c r="AB67">
         <v>3</v>
       </c>
-      <c r="AC67">
+      <c r="AG67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:29">
+    <row r="68" spans="2:33">
       <c r="B68" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D68" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E68" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F68" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S68">
         <v>-5</v>
@@ -5216,49 +5270,49 @@
       <c r="AB68">
         <v>3</v>
       </c>
-      <c r="AC68">
+      <c r="AG68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:29">
+    <row r="69" spans="2:33">
       <c r="B69" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C69" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D69" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q69" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R69">
         <v>10</v>
@@ -5284,49 +5338,49 @@
       <c r="AB69">
         <v>3</v>
       </c>
-      <c r="AC69">
+      <c r="AG69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:29">
+    <row r="70" spans="2:33">
       <c r="B70" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E70" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F70" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5352,43 +5406,43 @@
       <c r="AB70">
         <v>3</v>
       </c>
-      <c r="AC70">
+      <c r="AG70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:29">
+    <row r="71" spans="2:33">
       <c r="D71" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E71" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F71" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R71">
         <v>10</v>
@@ -5414,46 +5468,46 @@
       <c r="AB71">
         <v>3</v>
       </c>
-      <c r="AC71">
+      <c r="AG71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:29">
+    <row r="72" spans="2:33">
       <c r="D72" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E72" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F72" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R72">
         <v>10</v>
@@ -5482,37 +5536,37 @@
       <c r="AB72">
         <v>3</v>
       </c>
-      <c r="AC72">
+      <c r="AG72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:29">
+    <row r="73" spans="2:33">
       <c r="D73" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E73" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F73" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q73" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="R73">
         <v>10</v>
@@ -5532,34 +5586,34 @@
       <c r="AB73">
         <v>3</v>
       </c>
-      <c r="AC73">
+      <c r="AG73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:29">
+    <row r="74" spans="2:33">
       <c r="D74" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E74" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F74" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R74">
         <v>10</v>
@@ -5576,40 +5630,40 @@
       <c r="X74">
         <v>3</v>
       </c>
-      <c r="AC74">
+      <c r="AG74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:29">
+    <row r="75" spans="2:33">
       <c r="B75" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C75" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E75" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F75" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -5626,31 +5680,31 @@
       <c r="X75">
         <v>3</v>
       </c>
-      <c r="AC75">
+      <c r="AG75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:29">
+    <row r="76" spans="2:33">
       <c r="D76" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F76" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S76">
         <v>5</v>
@@ -5664,31 +5718,31 @@
       <c r="X76">
         <v>3</v>
       </c>
-      <c r="AC76">
+      <c r="AG76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:29">
+    <row r="77" spans="2:33">
       <c r="D77" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E77" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S77">
         <v>5</v>
@@ -5702,37 +5756,37 @@
       <c r="X77">
         <v>3</v>
       </c>
-      <c r="AC77">
+      <c r="AG77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:29">
+    <row r="78" spans="2:33">
       <c r="D78" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E78" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F78" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="S78">
         <v>5</v>
@@ -5752,34 +5806,34 @@
       <c r="Y78">
         <v>1</v>
       </c>
-      <c r="AC78">
+      <c r="AG78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:29">
+    <row r="79" spans="2:33">
       <c r="D79" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E79" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F79" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="R79">
         <v>-5</v>
@@ -5796,40 +5850,40 @@
       <c r="Y79">
         <v>1</v>
       </c>
-      <c r="AC79">
+      <c r="AG79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:29">
+    <row r="80" spans="2:33">
       <c r="D80" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E80" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F80" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q80" s="12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="R80">
         <v>-5</v>
@@ -5852,40 +5906,40 @@
       <c r="AB80">
         <v>1</v>
       </c>
-      <c r="AC80">
+      <c r="AG80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:29">
+    <row r="81" spans="2:33">
       <c r="D81" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E81" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F81" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q81" s="12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="R81">
         <v>-5</v>
@@ -5908,37 +5962,37 @@
       <c r="AB81">
         <v>1</v>
       </c>
-      <c r="AC81">
+      <c r="AG81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:29">
+    <row r="82" spans="2:33">
       <c r="D82" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F82" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="R82">
         <v>-5</v>
@@ -5958,43 +6012,43 @@
       <c r="Z82">
         <v>3</v>
       </c>
-      <c r="AC82">
+      <c r="AG82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:29">
+    <row r="83" spans="2:33">
       <c r="B83" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C83" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D83" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E83" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F83" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="R83">
         <v>-5</v>
@@ -6014,46 +6068,46 @@
       <c r="Z83">
         <v>3</v>
       </c>
-      <c r="AC83">
+      <c r="AG83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:29">
+    <row r="84" spans="2:33">
       <c r="D84" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E84" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F84" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q84" s="12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="R84">
         <v>-5</v>
@@ -6082,37 +6136,37 @@
       <c r="AB84">
         <v>-2</v>
       </c>
-      <c r="AC84">
+      <c r="AG84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="2:29">
+    <row r="85" spans="2:33">
       <c r="D85" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E85" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F85" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q85" s="12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="R85">
         <v>-5</v>
@@ -6132,31 +6186,31 @@
       <c r="AB85">
         <v>-2</v>
       </c>
-      <c r="AC85">
+      <c r="AG85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:29">
+    <row r="86" spans="2:33">
       <c r="D86" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E86" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F86" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q86" s="12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -6170,31 +6224,31 @@
       <c r="AB86">
         <v>-2</v>
       </c>
-      <c r="AC86">
+      <c r="AG86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:29">
+    <row r="87" spans="2:33">
       <c r="D87" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E87" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F87" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -6208,37 +6262,37 @@
       <c r="AA87">
         <v>3</v>
       </c>
-      <c r="AC87">
+      <c r="AG87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:29">
+    <row r="88" spans="2:33">
       <c r="D88" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E88" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F88" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N88" s="11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q88" s="12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -6258,46 +6312,46 @@
       <c r="AB88">
         <v>5</v>
       </c>
-      <c r="AC88">
+      <c r="AG88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="2:29">
+    <row r="89" spans="2:33">
       <c r="D89" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E89" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F89" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q89" s="12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="R89">
         <v>5</v>
@@ -6326,52 +6380,52 @@
       <c r="AB89">
         <v>5</v>
       </c>
-      <c r="AC89">
+      <c r="AG89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="2:29">
+    <row r="90" spans="2:33">
       <c r="B90" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C90" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E90" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F90" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N90" s="11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q90" s="12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="R90">
         <v>5</v>
@@ -6400,34 +6454,34 @@
       <c r="AB90">
         <v>5</v>
       </c>
-      <c r="AC90">
+      <c r="AG90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:29">
+    <row r="91" spans="2:33">
       <c r="D91" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E91" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F91" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q91" s="12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="R91">
         <v>5</v>
@@ -6444,34 +6498,34 @@
       <c r="AB91">
         <v>5</v>
       </c>
-      <c r="AC91">
+      <c r="AG91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:29">
+    <row r="92" spans="2:33">
       <c r="D92" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="E92" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F92" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q92" s="12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="R92">
         <v>5</v>
@@ -6488,37 +6542,37 @@
       <c r="AB92">
         <v>5</v>
       </c>
-      <c r="AC92">
+      <c r="AG92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="2:29">
+    <row r="93" spans="2:33">
       <c r="D93" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="E93" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F93" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="R93">
         <v>5</v>
@@ -6538,34 +6592,34 @@
       <c r="AA93">
         <v>3</v>
       </c>
-      <c r="AC93">
+      <c r="AG93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="2:29">
+    <row r="94" spans="2:33">
       <c r="D94" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="E94" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F94" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="R94">
         <v>5</v>
@@ -6582,31 +6636,31 @@
       <c r="X94">
         <v>5</v>
       </c>
-      <c r="AC94">
+      <c r="AG94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:29">
+    <row r="95" spans="2:33">
       <c r="D95" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E95" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F95" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="R95">
         <v>5</v>
@@ -6620,31 +6674,31 @@
       <c r="X95">
         <v>5</v>
       </c>
-      <c r="AC95">
+      <c r="AG95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="2:29">
+    <row r="96" spans="2:33">
       <c r="D96" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E96" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F96" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="S96">
         <v>3</v>
@@ -6658,43 +6712,43 @@
       <c r="Y96">
         <v>-5</v>
       </c>
-      <c r="AC96">
+      <c r="AG96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:29">
+    <row r="97" spans="2:33">
       <c r="B97" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C97" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D97" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="E97" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F97" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="S97">
         <v>3</v>
@@ -6714,40 +6768,40 @@
       <c r="Z97">
         <v>-2</v>
       </c>
-      <c r="AC97">
+      <c r="AG97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:29">
+    <row r="98" spans="2:33">
       <c r="D98" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E98" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F98" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q98" s="12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="S98">
         <v>3</v>
@@ -6770,43 +6824,43 @@
       <c r="AB98">
         <v>-5</v>
       </c>
-      <c r="AC98">
+      <c r="AG98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:29">
+    <row r="99" spans="2:33">
       <c r="D99" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="E99" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F99" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N99" s="11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q99" s="12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R99">
         <v>1</v>
@@ -6832,52 +6886,52 @@
       <c r="AB99">
         <v>-5</v>
       </c>
-      <c r="AC99">
+      <c r="AG99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:29">
+    <row r="100" spans="2:33">
       <c r="B100" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D100" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E100" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F100" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q100" s="12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R100">
         <v>1</v>
@@ -6906,43 +6960,43 @@
       <c r="AB100">
         <v>-5</v>
       </c>
-      <c r="AC100">
+      <c r="AG100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:29">
+    <row r="101" spans="2:33">
       <c r="D101" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E101" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="F101" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q101" s="12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R101">
         <v>1</v>
@@ -6968,40 +7022,40 @@
       <c r="AB101">
         <v>-5</v>
       </c>
-      <c r="AC101">
+      <c r="AG101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:29">
+    <row r="102" spans="2:33">
       <c r="D102" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E102" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F102" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q102" s="12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R102">
         <v>1</v>
@@ -7024,46 +7078,46 @@
       <c r="AB102">
         <v>-5</v>
       </c>
-      <c r="AC102">
+      <c r="AG102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="2:29">
+    <row r="103" spans="2:33">
       <c r="B103" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C103" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E103" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F103" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O103" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q103" s="12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R103">
         <v>1</v>
@@ -7086,40 +7140,40 @@
       <c r="AB103">
         <v>-5</v>
       </c>
-      <c r="AC103">
+      <c r="AG103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:29">
+    <row r="104" spans="2:33">
       <c r="D104" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E104" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F104" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -7142,40 +7196,40 @@
       <c r="AA104">
         <v>-2</v>
       </c>
-      <c r="AC104">
+      <c r="AG104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="2:29">
+    <row r="105" spans="2:33">
       <c r="D105" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E105" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F105" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P105" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="R105">
         <v>1</v>
@@ -7198,37 +7252,37 @@
       <c r="AA105">
         <v>-2</v>
       </c>
-      <c r="AC105">
+      <c r="AG105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:29">
+    <row r="106" spans="2:33">
       <c r="D106" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E106" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F106" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P106" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -7248,31 +7302,31 @@
       <c r="AA106">
         <v>-2</v>
       </c>
-      <c r="AC106">
+      <c r="AG106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:29">
+    <row r="107" spans="2:33">
       <c r="D107" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E107" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F107" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -7286,37 +7340,37 @@
       <c r="Y107">
         <v>10</v>
       </c>
-      <c r="AC107">
+      <c r="AG107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:29">
+    <row r="108" spans="2:33">
       <c r="D108" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="E108" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F108" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q108" s="12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -7336,43 +7390,43 @@
       <c r="AB108">
         <v>10</v>
       </c>
-      <c r="AC108">
+      <c r="AG108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:29">
+    <row r="109" spans="2:33">
       <c r="D109" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E109" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F109" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q109" s="12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R109">
         <v>3</v>
@@ -7398,46 +7452,46 @@
       <c r="AB109">
         <v>10</v>
       </c>
-      <c r="AC109">
+      <c r="AG109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:29">
+    <row r="110" spans="2:33">
       <c r="D110" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="E110" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F110" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O110" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q110" s="12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R110">
         <v>3</v>
@@ -7466,40 +7520,40 @@
       <c r="AB110">
         <v>10</v>
       </c>
-      <c r="AC110">
+      <c r="AG110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:29">
+    <row r="111" spans="2:33">
       <c r="D111" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="E111" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F111" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O111" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q111" s="12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R111">
         <v>3</v>
@@ -7522,46 +7576,46 @@
       <c r="AB111">
         <v>10</v>
       </c>
-      <c r="AC111">
+      <c r="AG111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:29">
+    <row r="112" spans="2:33">
       <c r="B112" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C112" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D112" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E112" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F112" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O112" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Q112" s="12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R112">
         <v>3</v>
@@ -7584,40 +7638,40 @@
       <c r="AB112">
         <v>10</v>
       </c>
-      <c r="AC112">
+      <c r="AG112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="4:29">
+    <row r="113" spans="4:33">
       <c r="D113" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E113" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F113" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O113" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q113" s="12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R113">
         <v>3</v>
@@ -7640,40 +7694,40 @@
       <c r="AB113">
         <v>10</v>
       </c>
-      <c r="AC113">
+      <c r="AG113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="4:29">
+    <row r="114" spans="4:33">
       <c r="D114" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E114" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F114" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="R114">
         <v>3</v>
@@ -7696,34 +7750,34 @@
       <c r="Z114">
         <v>-5</v>
       </c>
-      <c r="AC114">
+      <c r="AG114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="4:29">
+    <row r="115" spans="4:33">
       <c r="D115" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E115" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F115" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O115" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="R115">
         <v>3</v>
@@ -7740,28 +7794,28 @@
       <c r="Z115">
         <v>-5</v>
       </c>
-      <c r="AC115">
+      <c r="AG115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="4:29">
+    <row r="116" spans="4:33">
       <c r="D116" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="E116" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F116" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="S116">
         <v>5</v>
@@ -7772,31 +7826,31 @@
       <c r="X116">
         <v>10</v>
       </c>
-      <c r="AC116">
+      <c r="AG116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="4:29">
+    <row r="117" spans="4:33">
       <c r="D117" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E117" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F117" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="S117">
         <v>5</v>
@@ -7810,40 +7864,40 @@
       <c r="X117">
         <v>10</v>
       </c>
-      <c r="AC117">
+      <c r="AG117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="4:29">
+    <row r="118" spans="4:33">
       <c r="D118" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E118" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="F118" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P118" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="S118">
         <v>5</v>
@@ -7866,40 +7920,40 @@
       <c r="AA118">
         <v>-5</v>
       </c>
-      <c r="AC118">
+      <c r="AG118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="4:29">
+    <row r="119" spans="4:33">
       <c r="D119" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E119" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F119" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P119" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="R119">
         <v>1</v>
@@ -7922,40 +7976,40 @@
       <c r="AA119">
         <v>-5</v>
       </c>
-      <c r="AC119">
+      <c r="AG119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="4:29">
+    <row r="120" spans="4:33">
       <c r="D120" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E120" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F120" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O120" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P120" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q120" s="12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="R120">
         <v>1</v>
@@ -7978,40 +8032,40 @@
       <c r="AB120">
         <v>-1</v>
       </c>
-      <c r="AC120">
+      <c r="AG120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="4:29">
+    <row r="121" spans="4:33">
       <c r="D121" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E121" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="F121" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O121" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P121" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q121" s="12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="R121">
         <v>1</v>
@@ -8034,7 +8088,7 @@
       <c r="AB121">
         <v>-1</v>
       </c>
-      <c r="AC121">
+      <c r="AG121">
         <v>120</v>
       </c>
     </row>
